--- a/data/herring/PWS_herring_final.xlsx
+++ b/data/herring/PWS_herring_final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
@@ -588,7 +588,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="202">
+  <cellStyleXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -737,6 +737,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -828,7 +832,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="147" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="202">
+  <cellStyles count="206">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -929,6 +933,8 @@
     <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1029,6 +1035,8 @@
     <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_PeteSR" xfId="147"/>
   </cellStyles>
@@ -1361,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3029,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="K21" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N21">
         <v>297246327</v>
@@ -3115,23 +3123,23 @@
       <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
-        <v>0</v>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12">
+        <v>1</v>
+      </c>
+      <c r="J22" s="12">
+        <v>-1</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
       </c>
       <c r="L22" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="12">
-        <v>0</v>
+        <v>-0.94736841999999999</v>
       </c>
       <c r="N22">
         <v>532044543</v>
@@ -3211,23 +3219,23 @@
       <c r="G23" s="7">
         <v>-1</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0</v>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12">
+        <v>-0.94736841999999999</v>
       </c>
       <c r="K23" s="12">
         <v>0</v>
       </c>
       <c r="L23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="12">
-        <v>0</v>
+        <v>-0.89473683999999998</v>
       </c>
       <c r="N23">
         <v>517869725</v>
@@ -3307,23 +3315,23 @@
       <c r="G24" s="7">
         <v>-0.94736841999999999</v>
       </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7">
-        <v>-1</v>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12">
+        <v>-0.89473683999999998</v>
       </c>
       <c r="K24" s="12">
         <v>0</v>
       </c>
       <c r="L24" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="12">
-        <v>0</v>
+        <v>-0.84210525999999997</v>
       </c>
       <c r="N24">
         <v>617247527</v>
@@ -3403,23 +3411,23 @@
       <c r="G25" s="7">
         <v>-0.89473683999999998</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-      <c r="J25" s="7">
-        <v>-0.94736841999999999</v>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>1</v>
+      </c>
+      <c r="J25" s="12">
+        <v>-0.84210525999999997</v>
       </c>
       <c r="K25" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="12">
         <v>1</v>
       </c>
       <c r="M25" s="12">
-        <v>-1</v>
+        <v>-0.78947367999999996</v>
       </c>
       <c r="N25">
         <v>605425238</v>
@@ -3499,14 +3507,14 @@
       <c r="G26" s="7">
         <v>-0.84210525999999997</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1</v>
-      </c>
-      <c r="J26" s="7">
-        <v>-0.89473683999999998</v>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>1</v>
+      </c>
+      <c r="J26" s="12">
+        <v>-0.78947367999999996</v>
       </c>
       <c r="K26" s="12">
         <v>0</v>
@@ -3515,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="12">
-        <v>-0.94736841999999999</v>
+        <v>-0.73684210999999999</v>
       </c>
       <c r="N26">
         <v>495701890</v>
@@ -3595,14 +3603,14 @@
       <c r="G27" s="7">
         <v>-0.78947367999999996</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>1</v>
-      </c>
-      <c r="J27" s="7">
-        <v>-0.84210525999999997</v>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>1</v>
+      </c>
+      <c r="J27" s="12">
+        <v>-0.73684210999999999</v>
       </c>
       <c r="K27" s="12">
         <v>0</v>
@@ -3611,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="12">
-        <v>-0.89473683999999998</v>
+        <v>-0.68421052999999998</v>
       </c>
       <c r="N27">
         <v>567320525</v>
@@ -3691,14 +3699,14 @@
       <c r="G28" s="7">
         <v>-0.73684210999999999</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1</v>
-      </c>
-      <c r="J28" s="7">
-        <v>-0.78947367999999996</v>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>1</v>
+      </c>
+      <c r="J28" s="12">
+        <v>-0.68421052999999998</v>
       </c>
       <c r="K28" s="12">
         <v>0</v>
@@ -3707,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="12">
-        <v>-0.84210525999999997</v>
+        <v>-0.63157894999999997</v>
       </c>
       <c r="N28">
         <v>489220608</v>
@@ -3787,14 +3795,14 @@
       <c r="G29" s="7">
         <v>-0.68421052999999998</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1</v>
-      </c>
-      <c r="J29" s="7">
-        <v>-0.73684210999999999</v>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>1</v>
+      </c>
+      <c r="J29" s="12">
+        <v>-0.63157894999999997</v>
       </c>
       <c r="K29" s="12">
         <v>0</v>
@@ -3803,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="12">
-        <v>-0.78947367999999996</v>
+        <v>-0.57894736999999996</v>
       </c>
       <c r="N29">
         <v>613158229</v>
@@ -3883,14 +3891,14 @@
       <c r="G30" s="7">
         <v>-0.63157894999999997</v>
       </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1</v>
-      </c>
-      <c r="J30" s="7">
-        <v>-0.68421052999999998</v>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <v>1</v>
+      </c>
+      <c r="J30" s="12">
+        <v>-0.57894736999999996</v>
       </c>
       <c r="K30" s="12">
         <v>0</v>
@@ -3899,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="12">
-        <v>-0.73684210999999999</v>
+        <v>-0.52631578999999995</v>
       </c>
       <c r="N30">
         <v>641675427</v>
@@ -3979,14 +3987,14 @@
       <c r="G31" s="7">
         <v>-0.57894736999999996</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1</v>
-      </c>
-      <c r="J31" s="7">
-        <v>-0.63157894999999997</v>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>1</v>
+      </c>
+      <c r="J31" s="12">
+        <v>-0.52631578999999995</v>
       </c>
       <c r="K31" s="12">
         <v>0</v>
@@ -3995,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="12">
-        <v>-0.68421052999999998</v>
+        <v>-0.47368420999999999</v>
       </c>
       <c r="N31">
         <v>483704011</v>
@@ -4075,14 +4083,14 @@
       <c r="G32" s="7">
         <v>-0.52631578999999995</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1</v>
-      </c>
-      <c r="J32" s="7">
-        <v>-0.57894736999999996</v>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <v>1</v>
+      </c>
+      <c r="J32" s="12">
+        <v>-0.47368420999999999</v>
       </c>
       <c r="K32" s="12">
         <v>0</v>
@@ -4091,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="12">
-        <v>-0.63157894999999997</v>
+        <v>-0.42105262999999998</v>
       </c>
       <c r="N32">
         <v>542383070</v>
@@ -4171,14 +4179,14 @@
       <c r="G33" s="7">
         <v>-0.47368420999999999</v>
       </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
-      <c r="J33" s="7">
-        <v>-0.52631578999999995</v>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>1</v>
+      </c>
+      <c r="J33" s="12">
+        <v>-0.42105262999999998</v>
       </c>
       <c r="K33" s="12">
         <v>0</v>
@@ -4187,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="M33" s="12">
-        <v>-0.57894736999999996</v>
+        <v>-0.36842105000000003</v>
       </c>
       <c r="N33">
         <v>602128903</v>
@@ -4264,14 +4272,14 @@
       <c r="G34" s="7">
         <v>-0.42105262999999998</v>
       </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1</v>
-      </c>
-      <c r="J34" s="7">
-        <v>-0.47368420999999999</v>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>1</v>
+      </c>
+      <c r="J34" s="12">
+        <v>-0.36842105000000003</v>
       </c>
       <c r="K34" s="12">
         <v>0</v>
@@ -4280,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="12">
-        <v>-0.52631578999999995</v>
+        <v>-0.31578947000000002</v>
       </c>
       <c r="N34">
         <v>586607038</v>
@@ -4357,14 +4365,14 @@
       <c r="G35" s="7">
         <v>-0.36842105000000003</v>
       </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1</v>
-      </c>
-      <c r="J35" s="7">
-        <v>-0.42105262999999998</v>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>1</v>
+      </c>
+      <c r="J35" s="12">
+        <v>-0.31578947000000002</v>
       </c>
       <c r="K35" s="12">
         <v>0</v>
@@ -4373,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="12">
-        <v>-0.47368420999999999</v>
+        <v>-0.26315789000000001</v>
       </c>
       <c r="N35">
         <v>621062096</v>
@@ -4450,14 +4458,14 @@
       <c r="G36" s="7">
         <v>-0.31578947000000002</v>
       </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1</v>
-      </c>
-      <c r="J36" s="7">
-        <v>-0.36842105000000003</v>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>1</v>
+      </c>
+      <c r="J36" s="12">
+        <v>-0.26315789000000001</v>
       </c>
       <c r="K36" s="12">
         <v>0</v>
@@ -4466,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="12">
-        <v>-0.42105262999999998</v>
+        <v>-0.21052631999999999</v>
       </c>
       <c r="N36">
         <v>603754659</v>
@@ -4543,14 +4551,14 @@
       <c r="G37" s="7">
         <v>-0.26315789000000001</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1</v>
-      </c>
-      <c r="J37" s="7">
-        <v>-0.31578947000000002</v>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>1</v>
+      </c>
+      <c r="J37" s="12">
+        <v>-0.21052631999999999</v>
       </c>
       <c r="K37" s="12">
         <v>0</v>
@@ -4559,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="12">
-        <v>-0.36842105000000003</v>
+        <v>-0.15789474000000001</v>
       </c>
       <c r="N37">
         <v>607943252</v>
@@ -4636,14 +4644,14 @@
       <c r="G38" s="7">
         <v>-0.21052631999999999</v>
       </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>1</v>
-      </c>
-      <c r="J38" s="7">
-        <v>-0.26315789000000001</v>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>1</v>
+      </c>
+      <c r="J38" s="12">
+        <v>-0.15789474000000001</v>
       </c>
       <c r="K38" s="12">
         <v>0</v>
@@ -4652,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="M38" s="12">
-        <v>-0.31578947000000002</v>
+        <v>-0.10526315999999999</v>
       </c>
       <c r="N38">
         <v>638846859</v>
@@ -4729,14 +4737,14 @@
       <c r="G39" s="7">
         <v>-0.15789474000000001</v>
       </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>1</v>
-      </c>
-      <c r="J39" s="7">
-        <v>-0.21052631999999999</v>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>1</v>
+      </c>
+      <c r="J39" s="12">
+        <v>-0.10526315999999999</v>
       </c>
       <c r="K39" s="12">
         <v>0</v>
@@ -4745,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="12">
-        <v>-0.26315789000000001</v>
+        <v>-5.2631579999999997E-2</v>
       </c>
       <c r="N39">
         <v>564053077</v>
@@ -4822,14 +4830,14 @@
       <c r="G40" s="7">
         <v>-0.10526315999999999</v>
       </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>1</v>
-      </c>
-      <c r="J40" s="7">
-        <v>-0.15789474000000001</v>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>1</v>
+      </c>
+      <c r="J40" s="12">
+        <v>-5.2631579999999997E-2</v>
       </c>
       <c r="K40" s="12">
         <v>0</v>
@@ -4838,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="12">
-        <v>-0.21052631999999999</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>599490314</v>
@@ -4915,14 +4923,14 @@
       <c r="G41" s="7">
         <v>-5.2631579999999997E-2</v>
       </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>1</v>
-      </c>
-      <c r="J41" s="7">
-        <v>-0.10526315999999999</v>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>1</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0</v>
       </c>
       <c r="K41" s="12">
         <v>0</v>
@@ -4931,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="M41" s="12">
-        <v>-0.15789474000000001</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>617608302</v>
@@ -5008,14 +5016,14 @@
       <c r="G42" s="7">
         <v>0</v>
       </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>1</v>
-      </c>
-      <c r="J42" s="7">
-        <v>-5.2631579999999997E-2</v>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
+        <v>1</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
       </c>
       <c r="K42" s="12">
         <v>0</v>
@@ -5024,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="12">
-        <v>-0.10526315999999999</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>610639850</v>
@@ -5101,13 +5109,13 @@
       <c r="G43" s="7">
         <v>0</v>
       </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>1</v>
-      </c>
-      <c r="J43" s="7">
+      <c r="H43" s="12">
+        <v>0</v>
+      </c>
+      <c r="I43" s="12">
+        <v>1</v>
+      </c>
+      <c r="J43" s="12">
         <v>0</v>
       </c>
       <c r="K43" s="12">
@@ -5117,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="12">
-        <v>-5.2631579999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>640202598</v>
@@ -5194,13 +5202,13 @@
       <c r="G44" s="7">
         <v>0</v>
       </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>1</v>
-      </c>
-      <c r="J44" s="7">
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="I44" s="12">
+        <v>1</v>
+      </c>
+      <c r="J44" s="12">
         <v>0</v>
       </c>
       <c r="K44" s="12">
@@ -5287,13 +5295,13 @@
       <c r="G45" s="7">
         <v>0</v>
       </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>1</v>
-      </c>
-      <c r="J45" s="7">
+      <c r="H45" s="12">
+        <v>0</v>
+      </c>
+      <c r="I45" s="12">
+        <v>1</v>
+      </c>
+      <c r="J45" s="12">
         <v>0</v>
       </c>
       <c r="K45" s="12">
@@ -5370,13 +5378,13 @@
       <c r="G46" s="7">
         <v>0</v>
       </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>1</v>
-      </c>
-      <c r="J46" s="7">
+      <c r="H46" s="12">
+        <v>0</v>
+      </c>
+      <c r="I46" s="12">
+        <v>1</v>
+      </c>
+      <c r="J46" s="12">
         <v>0</v>
       </c>
       <c r="K46" s="12">
@@ -5462,13 +5470,13 @@
       <c r="J47" s="7">
         <v>0</v>
       </c>
-      <c r="K47" s="12">
-        <v>0</v>
-      </c>
-      <c r="L47" s="12">
-        <v>1</v>
-      </c>
-      <c r="M47" s="12">
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7">
+        <v>1</v>
+      </c>
+      <c r="M47" s="7">
         <v>0</v>
       </c>
       <c r="N47">
@@ -5522,13 +5530,13 @@
       <c r="G48" s="7">
         <v>0</v>
       </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>1</v>
-      </c>
-      <c r="J48" s="7">
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>1</v>
+      </c>
+      <c r="J48" s="12">
         <v>0</v>
       </c>
       <c r="K48" s="12">

--- a/data/herring/PWS_herring_final.xlsx
+++ b/data/herring/PWS_herring_final.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric.ward/Documents/pfx-covariation-pws/data/herring/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7B6EBF1A-95CD-844C-ACA5-B7814FB5B0ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="2160" windowWidth="35540" windowHeight="15860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="METADATA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eric Ward</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -97,13 +103,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -112,23 +118,41 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Herring from BY 1980 1 in 1981, and would have competed with juveniles produced by wild pink spawners in 1
-1980</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Herring from BY 1980 1 in 1981, and would have competed with juveniles produced by wild pink spawners in 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>1980</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -137,16 +161,25 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Herring from BY 1980 1 in 1981, and would have competed with juveniles produced by wild chum spawners in 1980</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Herring from BY 1980 1 in 1981, and would have competed with juveniles produced by wild chum spawners in 1980</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -218,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>BroodYear</t>
   </si>
@@ -445,17 +478,20 @@
   </si>
   <si>
     <t>CatchMillionsFish</t>
+  </si>
+  <si>
+    <t>ad.hatchRelChum.lag1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -538,6 +574,19 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1038,10 +1087,18 @@
     <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_PeteSR" xfId="147"/>
+    <cellStyle name="Normal_PeteSR" xfId="147" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1366,27 +1423,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="11" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="7" customWidth="1"/>
-    <col min="5" max="23" width="11" style="7" customWidth="1"/>
-    <col min="24" max="24" width="11" style="8" customWidth="1"/>
-    <col min="25" max="26" width="10.83203125" style="7" customWidth="1"/>
-    <col min="27" max="28" width="11" style="8" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="7"/>
+    <col min="5" max="24" width="11" style="7" customWidth="1"/>
+    <col min="25" max="25" width="11" style="8" customWidth="1"/>
+    <col min="26" max="27" width="10.83203125" style="7" customWidth="1"/>
+    <col min="28" max="29" width="11" style="8" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1457,31 +1514,34 @@
         <v>64</v>
       </c>
       <c r="X1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" s="9">
         <v>1968</v>
       </c>
@@ -1526,25 +1586,26 @@
       <c r="U2" s="8"/>
       <c r="V2" s="10"/>
       <c r="W2" s="8"/>
-      <c r="X2"/>
-      <c r="Y2" s="17">
+      <c r="X2" s="12"/>
+      <c r="Y2"/>
+      <c r="Z2" s="17">
         <v>-0.7</v>
       </c>
-      <c r="Z2" s="17">
+      <c r="AA2" s="17">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>250558.67050000001</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>267230.38510000001</v>
       </c>
-      <c r="AC2"/>
-      <c r="AD2">
+      <c r="AD2"/>
+      <c r="AE2">
         <v>4.4970000008742002</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3" s="9">
         <v>1969</v>
       </c>
@@ -1589,27 +1650,28 @@
       <c r="U3" s="8"/>
       <c r="V3" s="10"/>
       <c r="W3" s="8"/>
-      <c r="X3"/>
-      <c r="Y3" s="17">
+      <c r="X3" s="12"/>
+      <c r="Y3"/>
+      <c r="Z3" s="17">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="AA3" s="17">
         <v>-1.2</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>259762.7947</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>250558.67050000001</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>4.4970000008742002</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>5.5733333289623301</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32">
       <c r="A4" s="9">
         <v>1970</v>
       </c>
@@ -1655,27 +1717,28 @@
       </c>
       <c r="U4" s="8"/>
       <c r="W4" s="8"/>
-      <c r="X4"/>
-      <c r="Y4" s="17">
+      <c r="X4" s="12"/>
+      <c r="Y4"/>
+      <c r="Z4" s="17">
         <v>-1.2</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="AA4" s="17">
         <v>0.5</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>262705.315</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>259762.7947</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>5.5733333289623301</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>5.0026666680971799</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" s="9">
         <v>1971</v>
       </c>
@@ -1724,27 +1787,28 @@
         <v>314560</v>
       </c>
       <c r="W5" s="8"/>
-      <c r="X5"/>
-      <c r="Y5" s="17">
+      <c r="X5" s="12"/>
+      <c r="Y5"/>
+      <c r="Z5" s="17">
         <v>0.5</v>
       </c>
-      <c r="Z5" s="17">
+      <c r="AA5" s="17">
         <v>0.8</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>237275.0607</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>262705.315</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>5.0026666680971799</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>4.22008332808812</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6" s="9">
         <v>1972</v>
       </c>
@@ -1793,27 +1857,28 @@
         <v>1221109</v>
       </c>
       <c r="W6" s="8"/>
-      <c r="X6"/>
-      <c r="Y6" s="17">
+      <c r="X6" s="12"/>
+      <c r="Y6"/>
+      <c r="Z6" s="17">
         <v>0.8</v>
       </c>
-      <c r="Z6" s="17">
+      <c r="AA6" s="17">
         <v>1.8</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>227100.2844</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>237275.0607</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>4.22008332808812</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>4.7780000289281199</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7" s="9">
         <v>1973</v>
       </c>
@@ -1862,27 +1927,28 @@
         <v>255444</v>
       </c>
       <c r="W7" s="8"/>
-      <c r="X7"/>
-      <c r="Y7" s="17">
+      <c r="X7" s="12"/>
+      <c r="Y7"/>
+      <c r="Z7" s="17">
         <v>1.8</v>
       </c>
-      <c r="Z7" s="17">
+      <c r="AA7" s="17">
         <v>-0.3</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>217824.0711</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>227100.2844</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>4.7780000289281199</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>4.74375000198682</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" s="9">
         <v>1974</v>
       </c>
@@ -1931,27 +1997,28 @@
         <v>125504.71428571429</v>
       </c>
       <c r="W8" s="8"/>
-      <c r="X8"/>
-      <c r="Y8" s="17">
-        <v>-0.3</v>
-      </c>
+      <c r="X8" s="12"/>
+      <c r="Y8"/>
       <c r="Z8" s="17">
         <v>-0.3</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="17">
+        <v>-0.3</v>
+      </c>
+      <c r="AB8">
         <v>279620.43199999997</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>217824.0711</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>4.74375000198682</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>4.9940000077088698</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" s="9">
         <v>1975</v>
       </c>
@@ -2000,27 +2067,28 @@
         <v>460922.92063492065</v>
       </c>
       <c r="W9" s="8"/>
-      <c r="X9"/>
-      <c r="Y9" s="17">
-        <v>-0.3</v>
-      </c>
+      <c r="X9" s="12"/>
+      <c r="Y9"/>
       <c r="Z9" s="17">
         <v>-0.3</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="17">
+        <v>-0.3</v>
+      </c>
+      <c r="AB9">
         <v>252906.58540000001</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>279620.43199999997</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>4.9940000077088698</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>4.5809999763965603</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" s="9">
         <v>1976</v>
       </c>
@@ -2071,27 +2139,28 @@
         <v>698076.1825396826</v>
       </c>
       <c r="W10" s="8"/>
-      <c r="X10"/>
-      <c r="Y10" s="17">
+      <c r="X10" s="12"/>
+      <c r="Y10"/>
+      <c r="Z10" s="17">
         <v>-0.3</v>
       </c>
-      <c r="Z10" s="17">
+      <c r="AA10" s="17">
         <v>-6</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>327652.45390000002</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>252906.58540000001</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>4.5809999763965603</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>5.3272499879201298</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11" s="9">
         <v>1977</v>
       </c>
@@ -2148,27 +2217,28 @@
         <v>664097.9444444445</v>
       </c>
       <c r="W11" s="8"/>
-      <c r="X11"/>
-      <c r="Y11" s="17">
+      <c r="X11" s="12"/>
+      <c r="Y11"/>
+      <c r="Z11" s="17">
         <v>-6</v>
       </c>
-      <c r="Z11" s="17">
+      <c r="AA11" s="17">
         <v>0.9</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>306782.9817</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>327652.45390000002</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>5.3272499879201298</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>5.0565000057220502</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12" s="9">
         <v>1978</v>
       </c>
@@ -2225,29 +2295,30 @@
         <v>385054.20634920633</v>
       </c>
       <c r="W12" s="8"/>
-      <c r="X12" s="17">
+      <c r="X12" s="12"/>
+      <c r="Y12" s="17">
         <v>38.5</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Z12" s="17">
         <v>0.9</v>
       </c>
-      <c r="Z12" s="17">
+      <c r="AA12" s="17">
         <v>5.2</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>240079.23989999999</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>306782.9817</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>5.0565000057220502</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>5.3210833311080901</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13" s="9">
         <v>1979</v>
       </c>
@@ -2310,29 +2381,30 @@
       <c r="W13" s="8">
         <v>310761</v>
       </c>
-      <c r="X13" s="17">
+      <c r="X13" s="12"/>
+      <c r="Y13" s="17">
         <v>51.3</v>
       </c>
-      <c r="Y13" s="17">
+      <c r="Z13" s="17">
         <v>5.2</v>
       </c>
-      <c r="Z13" s="17">
+      <c r="AA13" s="17">
         <v>-5.2</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>253325.39550000001</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>240079.23989999999</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>5.3210833311080901</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>5.3483333329359697</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="18" customFormat="1">
+    <row r="14" spans="1:32" s="18" customFormat="1">
       <c r="A14" s="18">
         <v>1980</v>
       </c>
@@ -2403,32 +2475,35 @@
       <c r="W14" s="25">
         <v>354604</v>
       </c>
-      <c r="X14" s="26">
+      <c r="X14" s="17">
+        <v>267857</v>
+      </c>
+      <c r="Y14" s="26">
         <v>52</v>
       </c>
-      <c r="Y14" s="26">
+      <c r="Z14" s="26">
         <v>-5.2</v>
       </c>
-      <c r="Z14" s="26">
+      <c r="AA14" s="26">
         <v>0.2</v>
       </c>
-      <c r="AA14" s="22">
+      <c r="AB14" s="22">
         <v>300235.94949999999</v>
       </c>
-      <c r="AB14" s="22">
+      <c r="AC14" s="22">
         <v>253325.39550000001</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>5.3483333329359697</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>5.3518333574136099</v>
       </c>
-      <c r="AE14" s="27">
+      <c r="AF14" s="27">
         <v>16.344024594478281</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15" s="9">
         <v>1981</v>
       </c>
@@ -2500,31 +2575,34 @@
         <v>508173</v>
       </c>
       <c r="X15" s="17">
+        <v>857849</v>
+      </c>
+      <c r="Y15" s="17">
         <v>53.173670000000001</v>
       </c>
-      <c r="Y15" s="17">
+      <c r="Z15" s="17">
         <v>0.2</v>
       </c>
-      <c r="Z15" s="17">
+      <c r="AA15" s="17">
         <v>-3.9</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>298314.11200000002</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>300235.94949999999</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>5.3518333574136099</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>5.4074166655540497</v>
       </c>
-      <c r="AE15" s="27">
+      <c r="AF15" s="27">
         <v>14.920701018914244</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16" s="9">
         <v>1982</v>
       </c>
@@ -2596,31 +2674,34 @@
         <v>296018</v>
       </c>
       <c r="X16" s="17">
+        <v>3194279</v>
+      </c>
+      <c r="Y16" s="17">
         <v>55.331479999999999</v>
       </c>
-      <c r="Y16" s="17">
+      <c r="Z16" s="17">
         <v>-3.9</v>
       </c>
-      <c r="Z16" s="17">
+      <c r="AA16" s="17">
         <v>-0.2</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>220808.3033</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>298314.11200000002</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>5.4074166655540497</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>5.4459999899069498</v>
       </c>
-      <c r="AE16" s="27">
+      <c r="AF16" s="27">
         <v>13.019714950565442</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32">
       <c r="A17" s="9">
         <v>1983</v>
       </c>
@@ -2692,31 +2773,34 @@
         <v>439877</v>
       </c>
       <c r="X17" s="17">
+        <v>8882890</v>
+      </c>
+      <c r="Y17" s="17">
         <v>52.8</v>
       </c>
-      <c r="Y17" s="17">
+      <c r="Z17" s="17">
         <v>-0.2</v>
       </c>
-      <c r="Z17" s="17">
+      <c r="AA17" s="17">
         <v>-3.3</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>283441.22100000002</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>220808.3033</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>5.4459999899069498</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>5.8888333300749496</v>
       </c>
-      <c r="AE17" s="27">
+      <c r="AF17" s="27">
         <v>5.2172232498427196</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32">
       <c r="A18" s="9">
         <v>1984</v>
       </c>
@@ -2788,31 +2872,34 @@
         <v>693050</v>
       </c>
       <c r="X18" s="17">
+        <v>18464516</v>
+      </c>
+      <c r="Y18" s="17">
         <v>73.3</v>
       </c>
-      <c r="Y18" s="17">
+      <c r="Z18" s="17">
         <v>-3.3</v>
       </c>
-      <c r="Z18" s="17">
+      <c r="AA18" s="17">
         <v>-7.6</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>252524.6678</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>283441.22100000002</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>5.8888333300749496</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>5.9854166686534898</v>
       </c>
-      <c r="AE18" s="27">
+      <c r="AF18" s="27">
         <v>14.475988351541268</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32">
       <c r="A19" s="9">
         <v>1985</v>
       </c>
@@ -2884,31 +2971,34 @@
         <v>321770</v>
       </c>
       <c r="X19" s="17">
+        <v>25195583</v>
+      </c>
+      <c r="Y19" s="17">
         <v>71.099999999999994</v>
       </c>
-      <c r="Y19" s="17">
+      <c r="Z19" s="17">
         <v>-7.6</v>
       </c>
-      <c r="Z19" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA19">
+      <c r="AA19" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB19">
         <v>279179.23259999999</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>252524.6678</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>5.9854166686534898</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>5.4864166518052402</v>
       </c>
-      <c r="AE19" s="27">
+      <c r="AF19" s="27">
         <v>16.766153337823987</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32">
       <c r="A20" s="9">
         <v>1986</v>
       </c>
@@ -2980,31 +3070,34 @@
         <v>139524</v>
       </c>
       <c r="X20" s="17">
+        <v>49909204</v>
+      </c>
+      <c r="Y20" s="17">
         <v>66.900000000000006</v>
       </c>
-      <c r="Y20" s="17">
-        <v>1</v>
-      </c>
       <c r="Z20" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="17">
         <v>0.1</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>332840.14799999999</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>279179.23259999999</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>5.4864166518052402</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>6.3091666817665102</v>
       </c>
-      <c r="AE20" s="27">
+      <c r="AF20" s="27">
         <v>19.668820055915042</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32">
       <c r="A21" s="9">
         <v>1987</v>
       </c>
@@ -3076,31 +3169,34 @@
         <v>343498</v>
       </c>
       <c r="X21" s="17">
+        <v>29256874</v>
+      </c>
+      <c r="Y21" s="17">
         <v>62.7</v>
       </c>
-      <c r="Y21" s="17">
+      <c r="Z21" s="17">
         <v>0.1</v>
       </c>
-      <c r="Z21" s="17">
+      <c r="AA21" s="17">
         <v>-7</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>384128.02600000001</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>332840.14799999999</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>6.3091666817665102</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>5.6579999824365004</v>
       </c>
-      <c r="AE21" s="27">
+      <c r="AF21" s="27">
         <v>22.213145600000001</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32">
       <c r="A22" s="9">
         <v>1988</v>
       </c>
@@ -3172,31 +3268,34 @@
         <v>235820</v>
       </c>
       <c r="X22" s="17">
+        <v>116470930</v>
+      </c>
+      <c r="Y22" s="17">
         <v>84.3</v>
       </c>
-      <c r="Y22" s="17">
+      <c r="Z22" s="17">
         <v>-7</v>
       </c>
-      <c r="Z22" s="17">
+      <c r="AA22" s="17">
         <v>-4.5</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>324591.42239999998</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>384128.02600000001</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>5.6579999824365004</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>5.1057500123977704</v>
       </c>
-      <c r="AE22" s="27">
+      <c r="AF22" s="27">
         <v>28.155448203602639</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23" s="9">
         <v>1989</v>
       </c>
@@ -3268,31 +3367,34 @@
         <v>289183</v>
       </c>
       <c r="X23" s="17">
+        <v>70247711</v>
+      </c>
+      <c r="Y23" s="17">
         <v>95.9</v>
       </c>
-      <c r="Y23" s="17">
+      <c r="Z23" s="17">
         <v>-4.5</v>
       </c>
-      <c r="Z23" s="17">
+      <c r="AA23" s="17">
         <v>0.9</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>264924.88630000001</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>324591.42239999998</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>5.1057500123977704</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>5.1670833428700798</v>
       </c>
-      <c r="AE23" s="27">
+      <c r="AF23" s="27">
         <v>4.8983464149757587</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24" s="9">
         <v>1990</v>
       </c>
@@ -3364,31 +3466,34 @@
         <v>449442</v>
       </c>
       <c r="X24" s="17">
+        <v>83187692</v>
+      </c>
+      <c r="Y24" s="17">
         <v>96.7</v>
       </c>
-      <c r="Y24" s="17">
+      <c r="Z24" s="17">
         <v>0.9</v>
       </c>
-      <c r="Z24" s="17">
+      <c r="AA24" s="17">
         <v>2</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>280384.98440000002</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>264924.88630000001</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>5.1670833428700798</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>5.1202499945958504</v>
       </c>
-      <c r="AE24" s="27">
+      <c r="AF24" s="27">
         <v>22.830664097315704</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25" s="9">
         <v>1991</v>
       </c>
@@ -3460,31 +3565,34 @@
         <v>336190</v>
       </c>
       <c r="X25" s="17">
+        <v>50600068</v>
+      </c>
+      <c r="Y25" s="17">
         <v>91.6</v>
       </c>
-      <c r="Y25" s="17">
+      <c r="Z25" s="17">
         <v>2</v>
       </c>
-      <c r="Z25" s="17">
+      <c r="AA25" s="17">
         <v>-2.6</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>342386.86119999998</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>280384.98440000002</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>5.1202499945958504</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>5.4945833484331796</v>
       </c>
-      <c r="AE25" s="27">
+      <c r="AF25" s="27">
         <v>57.462859607477725</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26" s="9">
         <v>1992</v>
       </c>
@@ -3556,31 +3664,34 @@
         <v>327209</v>
       </c>
       <c r="X26" s="17">
+        <v>78570687</v>
+      </c>
+      <c r="Y26" s="17">
         <v>117</v>
       </c>
-      <c r="Y26" s="17">
+      <c r="Z26" s="17">
         <v>-2.6</v>
       </c>
-      <c r="Z26" s="17">
+      <c r="AA26" s="17">
         <v>-1.3</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>337632.12900000002</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>342386.86119999998</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>5.4945833484331796</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>5.1359166741371203</v>
       </c>
-      <c r="AE26" s="27">
+      <c r="AF26" s="27">
         <v>51.223243643807216</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27" s="9">
         <v>1993</v>
       </c>
@@ -3652,31 +3763,34 @@
         <v>726883</v>
       </c>
       <c r="X27" s="17">
+        <v>100735086</v>
+      </c>
+      <c r="Y27" s="17">
         <v>124.6</v>
       </c>
-      <c r="Y27" s="17">
+      <c r="Z27" s="17">
         <v>-1.3</v>
       </c>
-      <c r="Z27" s="17">
+      <c r="AA27" s="17">
         <v>7</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>292579.9914</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>337632.12900000002</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>5.1359166741371203</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>5.9635833223660804</v>
       </c>
-      <c r="AE27" s="27">
+      <c r="AF27" s="27">
         <v>22.971618294772519</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="A28" s="9">
         <v>1994</v>
       </c>
@@ -3748,31 +3862,34 @@
         <v>577028</v>
       </c>
       <c r="X28" s="17">
+        <v>125697308</v>
+      </c>
+      <c r="Y28" s="17">
         <v>120.9</v>
       </c>
-      <c r="Y28" s="17">
+      <c r="Z28" s="17">
         <v>7</v>
       </c>
-      <c r="Z28" s="17">
+      <c r="AA28" s="17">
         <v>-3.3</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>299951.5405</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>292579.9914</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>5.9635833223660804</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>4.9049999932448101</v>
       </c>
-      <c r="AE28" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="AF28" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="9">
         <v>1995</v>
       </c>
@@ -3844,31 +3961,34 @@
         <v>238272</v>
       </c>
       <c r="X29" s="17">
+        <v>106196261</v>
+      </c>
+      <c r="Y29" s="17">
         <v>125</v>
       </c>
-      <c r="Y29" s="17">
+      <c r="Z29" s="17">
         <v>-3.3</v>
       </c>
-      <c r="Z29" s="17">
+      <c r="AA29" s="17">
         <v>-2.4</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>284705.64620000002</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>299951.5405</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>4.9049999932448101</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>5.1688333292802202</v>
       </c>
-      <c r="AE29" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="AF29" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="9">
         <v>1996</v>
       </c>
@@ -3940,31 +4060,34 @@
         <v>73396</v>
       </c>
       <c r="X30" s="17">
+        <v>97859590</v>
+      </c>
+      <c r="Y30" s="17">
         <v>156.9</v>
       </c>
-      <c r="Y30" s="17">
+      <c r="Z30" s="17">
         <v>-2.4</v>
       </c>
-      <c r="Z30" s="17">
+      <c r="AA30" s="17">
         <v>-0.8</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>252000.3579</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>284705.64620000002</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>5.1688333292802202</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>5.1875833491484302</v>
       </c>
-      <c r="AE30" s="27">
+      <c r="AF30" s="27">
         <v>4.2234816429929189</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31" s="9">
         <v>1997</v>
       </c>
@@ -4036,31 +4159,34 @@
         <v>138982</v>
       </c>
       <c r="X31" s="17">
+        <v>102314530</v>
+      </c>
+      <c r="Y31" s="17">
         <v>154.1</v>
       </c>
-      <c r="Y31" s="17">
+      <c r="Z31" s="17">
         <v>-0.8</v>
       </c>
-      <c r="Z31" s="17">
+      <c r="AA31" s="17">
         <v>-0.9</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>307158.12560000003</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>252000.3579</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>5.1875833491484302</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>5.9390833278497102</v>
       </c>
-      <c r="AE31" s="27">
+      <c r="AF31" s="27">
         <v>5.0912543408828537</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32">
       <c r="A32" s="9">
         <v>1998</v>
       </c>
@@ -4132,31 +4258,34 @@
         <v>198466</v>
       </c>
       <c r="X32" s="17">
+        <v>95760631</v>
+      </c>
+      <c r="Y32" s="17">
         <v>147.9</v>
       </c>
-      <c r="Y32" s="17">
+      <c r="Z32" s="17">
         <v>-0.9</v>
       </c>
-      <c r="Z32" s="17">
+      <c r="AA32" s="17">
         <v>3.9</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>298739.391</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>307158.12560000003</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>5.9390833278497102</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>5.4912499785423297</v>
       </c>
-      <c r="AE32" s="27">
+      <c r="AF32" s="27">
         <v>9.370788091027034</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:31">
       <c r="A33" s="9">
         <v>1999</v>
       </c>
@@ -4228,28 +4357,31 @@
         <v>348129</v>
       </c>
       <c r="X33" s="17">
+        <v>110065833</v>
+      </c>
+      <c r="Y33" s="17">
         <v>148.80000000000001</v>
       </c>
-      <c r="Y33" s="17">
+      <c r="Z33" s="17">
         <v>3.9</v>
       </c>
-      <c r="Z33" s="17">
+      <c r="AA33" s="17">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>331117.17950000003</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>298739.391</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>5.4912499785423297</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>4.6974166512489299</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:31">
       <c r="A34" s="9">
         <v>2000</v>
       </c>
@@ -4321,28 +4453,31 @@
         <v>293340</v>
       </c>
       <c r="X34" s="17">
+        <v>99294184</v>
+      </c>
+      <c r="Y34" s="17">
         <v>139.5</v>
       </c>
-      <c r="Y34" s="17">
+      <c r="Z34" s="17">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="Z34" s="17">
+      <c r="AA34" s="17">
         <v>-3.3</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>324565.56290000002</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>331117.17950000003</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>4.6974166512489299</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>5.5102499882380203</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:31">
       <c r="A35" s="9">
         <v>2001</v>
       </c>
@@ -4414,28 +4549,31 @@
         <v>588227</v>
       </c>
       <c r="X35" s="17">
+        <v>100301928</v>
+      </c>
+      <c r="Y35" s="17">
         <v>141.80000000000001</v>
       </c>
-      <c r="Y35" s="17">
+      <c r="Z35" s="17">
         <v>-3.3</v>
       </c>
-      <c r="Z35" s="17">
+      <c r="AA35" s="17">
         <v>-4</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>281154.53499999997</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>324565.56290000002</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>5.5102499882380203</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>4.8756666779518101</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:31">
       <c r="A36" s="9">
         <v>2002</v>
       </c>
@@ -4507,28 +4645,31 @@
         <v>435769</v>
       </c>
       <c r="X36" s="17">
+        <v>76116325</v>
+      </c>
+      <c r="Y36" s="17">
         <v>144.19999999999999</v>
       </c>
-      <c r="Y36" s="17">
+      <c r="Z36" s="17">
         <v>-4</v>
       </c>
-      <c r="Z36" s="17">
+      <c r="AA36" s="17">
         <v>0.7</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>313336.46509999997</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>281154.53499999997</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>4.8756666779518101</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>6.3621666828791303</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:31">
       <c r="A37" s="9">
         <v>2003</v>
       </c>
@@ -4600,28 +4741,31 @@
         <v>567839</v>
       </c>
       <c r="X37" s="17">
+        <v>101255366</v>
+      </c>
+      <c r="Y37" s="17">
         <v>135.19999999999999</v>
       </c>
-      <c r="Y37" s="17">
+      <c r="Z37" s="17">
         <v>0.7</v>
       </c>
-      <c r="Z37" s="17">
+      <c r="AA37" s="17">
         <v>-5.3</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>262465.37199999997</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>313336.46509999997</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>6.3621666828791303</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>5.4145833273728696</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:31">
       <c r="A38" s="9">
         <v>2004</v>
       </c>
@@ -4693,28 +4837,31 @@
         <v>364547</v>
       </c>
       <c r="X38" s="17">
+        <v>98832705</v>
+      </c>
+      <c r="Y38" s="17">
         <v>131.69999999999999</v>
       </c>
-      <c r="Y38" s="17">
+      <c r="Z38" s="17">
         <v>-5.3</v>
       </c>
-      <c r="Z38" s="17">
+      <c r="AA38" s="17">
         <v>-1.6</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>298415.46189999999</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>262465.37199999997</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>5.4145833273728696</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>5.5955833176771801</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:31">
       <c r="A39" s="9">
         <v>2005</v>
       </c>
@@ -4786,28 +4933,31 @@
         <v>401420</v>
       </c>
       <c r="X39" s="17">
+        <v>131172881</v>
+      </c>
+      <c r="Y39" s="17">
         <v>124.7</v>
-      </c>
-      <c r="Y39" s="17">
-        <v>-1.6</v>
       </c>
       <c r="Z39" s="17">
         <v>-1.6</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" s="17">
+        <v>-1.6</v>
+      </c>
+      <c r="AB39">
         <v>319096.78320000001</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>298415.46189999999</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>5.5955833176771801</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>5.1140000065167701</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:31">
       <c r="A40" s="9">
         <v>2006</v>
       </c>
@@ -4879,28 +5029,31 @@
         <v>171002</v>
       </c>
       <c r="X40" s="17">
+        <v>127186125</v>
+      </c>
+      <c r="Y40" s="17">
         <v>118.7</v>
       </c>
-      <c r="Y40" s="17">
+      <c r="Z40" s="17">
         <v>-1.6</v>
       </c>
-      <c r="Z40" s="17">
+      <c r="AA40" s="17">
         <v>0.4</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>267765.34590000001</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>319096.78320000001</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>5.1140000065167701</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>4.71641665498416</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:31">
       <c r="A41" s="9">
         <v>2007</v>
       </c>
@@ -4972,28 +5125,31 @@
         <v>279304</v>
       </c>
       <c r="X41" s="17">
+        <v>146015891</v>
+      </c>
+      <c r="Y41" s="17">
         <v>143.30000000000001</v>
       </c>
-      <c r="Y41" s="17">
+      <c r="Z41" s="17">
         <v>0.4</v>
       </c>
-      <c r="Z41" s="17">
+      <c r="AA41" s="17">
         <v>-2.1</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>314611.1165</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>267765.34590000001</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>4.71641665498416</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>4.62808334430059</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:31">
       <c r="A42" s="9">
         <v>2008</v>
       </c>
@@ -5065,28 +5221,31 @@
         <v>249070</v>
       </c>
       <c r="X42" s="17">
+        <v>129100000</v>
+      </c>
+      <c r="Y42" s="17">
         <v>134.30000000000001</v>
       </c>
-      <c r="Y42" s="17">
+      <c r="Z42" s="17">
         <v>-2.1</v>
       </c>
-      <c r="Z42" s="17">
+      <c r="AA42" s="17">
         <v>-8.1</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>315397.29220000003</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>314611.1165</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>4.62808334430059</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>4.3966666658719404</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:31">
       <c r="A43" s="9">
         <v>2009</v>
       </c>
@@ -5158,28 +5317,31 @@
         <v>251698</v>
       </c>
       <c r="X43" s="17">
+        <v>131500000</v>
+      </c>
+      <c r="Y43" s="17">
         <v>193.9</v>
       </c>
-      <c r="Y43" s="17">
+      <c r="Z43" s="17">
         <v>-8.1</v>
       </c>
-      <c r="Z43" s="17">
+      <c r="AA43" s="17">
         <v>-4.7</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>275038.97730000003</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>315397.29220000003</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>4.3966666658719404</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>5.1518333474795002</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:31">
       <c r="A44" s="9">
         <v>2010</v>
       </c>
@@ -5250,29 +5412,32 @@
       <c r="W44" s="3">
         <v>166027</v>
       </c>
-      <c r="X44">
+      <c r="X44" s="17">
+        <v>125100000</v>
+      </c>
+      <c r="Y44">
         <v>183.58879999999999</v>
       </c>
-      <c r="Y44" s="17">
+      <c r="Z44" s="17">
         <v>-4.7</v>
       </c>
-      <c r="Z44" s="17">
+      <c r="AA44" s="17">
         <v>-2.6</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>292554.16009999998</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>275038.97730000003</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>5.1518333474795002</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>5.0822500010331497</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:31">
       <c r="A45" s="9">
         <v>2011</v>
       </c>
@@ -5343,29 +5508,32 @@
       <c r="W45" s="3">
         <v>168260</v>
       </c>
-      <c r="X45">
+      <c r="X45" s="17">
+        <v>130200000</v>
+      </c>
+      <c r="Y45">
         <v>192.30420000000001</v>
       </c>
-      <c r="Y45" s="17">
+      <c r="Z45" s="17">
         <v>-2.6</v>
       </c>
-      <c r="Z45" s="17">
+      <c r="AA45" s="17">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>273244.43440000003</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>292554.16009999998</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>5.0822500010331497</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>4.3084166646003696</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:31">
       <c r="A46" s="9">
         <v>2012</v>
       </c>
@@ -5426,29 +5594,32 @@
       <c r="W46" s="3">
         <v>279665</v>
       </c>
-      <c r="X46" s="8">
+      <c r="X46" s="17">
+        <v>139500000</v>
+      </c>
+      <c r="Y46" s="8">
         <v>201.4333</v>
       </c>
-      <c r="Y46" s="17">
+      <c r="Z46" s="17">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="Z46" s="17">
+      <c r="AA46" s="17">
         <v>-4.8</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>308300.49810000003</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>273244.43440000003</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>4.3084166646003696</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>4.81516667604446</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:31">
       <c r="A47" s="9">
         <v>2013</v>
       </c>
@@ -5501,23 +5672,26 @@
         <v>393748</v>
       </c>
       <c r="W47" s="3"/>
-      <c r="X47"/>
-      <c r="Y47" s="12"/>
+      <c r="X47" s="17">
+        <v>140300000</v>
+      </c>
+      <c r="Y47"/>
       <c r="Z47" s="12"/>
-      <c r="AA47">
+      <c r="AA47" s="12"/>
+      <c r="AB47">
         <v>295016.70919999998</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>308300.49810000003</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>4.81516667604446</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>5.4917500078678101</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:31">
       <c r="A48" s="9">
         <v>2014</v>
       </c>
@@ -5568,9 +5742,12 @@
         <v>484215.98535400262</v>
       </c>
       <c r="W48" s="8"/>
-      <c r="Y48" s="12"/>
+      <c r="X48" s="17">
+        <v>148300000</v>
+      </c>
       <c r="Z48" s="12"/>
-      <c r="AC48">
+      <c r="AA48" s="12"/>
+      <c r="AD48">
         <v>5.4917500078678101</v>
       </c>
     </row>
@@ -5590,14 +5767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
